--- a/problems/data/MT-KBH-004/XRD+synthsis_data_b9.xlsx
+++ b/problems/data/MT-KBH-004/XRD+synthsis_data_b9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y85"/>
+  <dimension ref="A1:Y91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7196,6 +7196,480 @@
         <v>2.56</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4EXP84</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>28</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="E86" t="n">
+        <v>111.37</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="I86" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K86" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="L86" t="n">
+        <v>237.52</v>
+      </c>
+      <c r="M86" t="n">
+        <v>65.05200000000001</v>
+      </c>
+      <c r="N86" t="n">
+        <v>60.625</v>
+      </c>
+      <c r="O86" t="n">
+        <v>45.052</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5.052</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>36.132</v>
+      </c>
+      <c r="R86" t="n">
+        <v>34.3152</v>
+      </c>
+      <c r="S86" t="n">
+        <v>31.6507</v>
+      </c>
+      <c r="T86" t="n">
+        <v>10.2134</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.9279356384799725</v>
+      </c>
+      <c r="V86" t="n">
+        <v>17.56</v>
+      </c>
+      <c r="W86" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="X86" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4EXP86</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>28</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="E87" t="n">
+        <v>102.23</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="I87" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K87" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="L87" t="n">
+        <v>237.52</v>
+      </c>
+      <c r="M87" t="n">
+        <v>49.062</v>
+      </c>
+      <c r="N87" t="n">
+        <v>44.219</v>
+      </c>
+      <c r="O87" t="n">
+        <v>35.469</v>
+      </c>
+      <c r="P87" t="n">
+        <v>11.198</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>36.132</v>
+      </c>
+      <c r="R87" t="n">
+        <v>34.285</v>
+      </c>
+      <c r="S87" t="n">
+        <v>31.6507</v>
+      </c>
+      <c r="T87" t="n">
+        <v>11.1218</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.8141719216727514</v>
+      </c>
+      <c r="V87" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="W87" t="n">
+        <v>26.76</v>
+      </c>
+      <c r="X87" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4EXP88</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>28</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="E88" t="n">
+        <v>105.44</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="I88" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K88" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="L88" t="n">
+        <v>237.52</v>
+      </c>
+      <c r="M88" t="n">
+        <v>58.958</v>
+      </c>
+      <c r="N88" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="O88" t="n">
+        <v>42.448</v>
+      </c>
+      <c r="P88" t="n">
+        <v>9.686999999999999</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>36.132</v>
+      </c>
+      <c r="R88" t="n">
+        <v>34.285</v>
+      </c>
+      <c r="S88" t="n">
+        <v>31.6507</v>
+      </c>
+      <c r="T88" t="n">
+        <v>11.0007</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.8588826571491005</v>
+      </c>
+      <c r="V88" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="W88" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="X88" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4EXP85</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>29</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="E89" t="n">
+        <v>138.89</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G89" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="H89" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K89" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L89" t="n">
+        <v>390</v>
+      </c>
+      <c r="M89" t="n">
+        <v>78.07299999999999</v>
+      </c>
+      <c r="N89" t="n">
+        <v>67.65600000000001</v>
+      </c>
+      <c r="O89" t="n">
+        <v>54.948</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4.792</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>36.1925</v>
+      </c>
+      <c r="R89" t="n">
+        <v>34.3152</v>
+      </c>
+      <c r="S89" t="n">
+        <v>31.6507</v>
+      </c>
+      <c r="T89" t="n">
+        <v>10.4254</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0.9421710010257648</v>
+      </c>
+      <c r="V89" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="W89" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="X89" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4EXP87</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>29</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="E90" t="n">
+        <v>137.97</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G90" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I90" t="n">
+        <v>4</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L90" t="n">
+        <v>390</v>
+      </c>
+      <c r="M90" t="n">
+        <v>77.96899999999999</v>
+      </c>
+      <c r="N90" t="n">
+        <v>66.92700000000001</v>
+      </c>
+      <c r="O90" t="n">
+        <v>55.104</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4.844</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>36.1622</v>
+      </c>
+      <c r="R90" t="n">
+        <v>34.3152</v>
+      </c>
+      <c r="S90" t="n">
+        <v>31.681</v>
+      </c>
+      <c r="T90" t="n">
+        <v>10.9098</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0.9415067682610219</v>
+      </c>
+      <c r="V90" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="W90" t="n">
+        <v>26.42</v>
+      </c>
+      <c r="X90" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4EXP89</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>29</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>137.66</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G91" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="H91" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>4</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K91" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L91" t="n">
+        <v>390</v>
+      </c>
+      <c r="M91" t="n">
+        <v>72.86499999999999</v>
+      </c>
+      <c r="N91" t="n">
+        <v>65.625</v>
+      </c>
+      <c r="O91" t="n">
+        <v>49.948</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4.583</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>36.132</v>
+      </c>
+      <c r="R91" t="n">
+        <v>34.285</v>
+      </c>
+      <c r="S91" t="n">
+        <v>31.681</v>
+      </c>
+      <c r="T91" t="n">
+        <v>12.666</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.9408248114864167</v>
+      </c>
+      <c r="V91" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="W91" t="n">
+        <v>26.23</v>
+      </c>
+      <c r="X91" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
